--- a/タスク表(変化なし).xlsx
+++ b/タスク表(変化なし).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooharastudent-my.sharepoint.com/personal/fko2447064_stu_o-hara_ac_jp/Documents/ドキュメント/GitHub/untitle_/Ando_3DGame/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{2597AF18-BBB3-4575-B38D-FC3794388094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28AAFBC4-CDD0-4547-B6E3-DB2508295123}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{2597AF18-BBB3-4575-B38D-FC3794388094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FE87932-20A9-48E9-9C22-1B75EC245D5F}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="3120" windowWidth="16815" windowHeight="11295" activeTab="1" xr2:uid="{5D8292B9-282B-406C-ACEB-B10D69DB5519}"/>
+    <workbookView xWindow="465" yWindow="3120" windowWidth="16815" windowHeight="11295" activeTab="2" xr2:uid="{5D8292B9-282B-406C-ACEB-B10D69DB5519}"/>
   </bookViews>
   <sheets>
     <sheet name="一旦書き起こし" sheetId="1" r:id="rId1"/>
     <sheet name="タスク" sheetId="2" r:id="rId2"/>
+    <sheet name="今後について" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -835,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,19 +876,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
@@ -1482,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA941F9-6338-4010-ABAC-F178E79FF975}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D40" sqref="D40:F41"/>
     </sheetView>
   </sheetViews>
@@ -1499,7 +1494,7 @@
       <c r="D2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="11"/>
@@ -1511,7 +1506,7 @@
       <c r="E3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1522,7 +1517,7 @@
       <c r="E4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1533,7 +1528,7 @@
       <c r="E5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1544,7 +1539,7 @@
       <c r="E6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1555,7 +1550,7 @@
       <c r="E7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1566,7 +1561,7 @@
       <c r="E8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1577,7 +1572,7 @@
       <c r="E9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1588,7 +1583,7 @@
       <c r="E10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1599,7 +1594,7 @@
       <c r="E11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1612,7 +1607,7 @@
       <c r="E12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1627,7 +1622,7 @@
       <c r="E13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1642,7 +1637,7 @@
       <c r="E14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1657,7 +1652,7 @@
       <c r="E15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1672,7 +1667,7 @@
       <c r="E16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1693,7 +1688,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1715,7 +1710,7 @@
       <c r="E19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1832,10 +1827,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
@@ -1843,91 +1838,91 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F32" s="12"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>63</v>
       </c>
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F37" s="12"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F38" s="12"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>69</v>
       </c>
       <c r="F39" s="12"/>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1935,4 +1930,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A21FEC-175F-4F51-AE95-9505BCF76C4A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>